--- a/Top Gun Prj/슬라이더 대본.xlsx
+++ b/Top Gun Prj/슬라이더 대본.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\FY24\TopGun-Prj\TopGun-Prj\Top Gun Prj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41507B05-D4E6-4821-9B19-3B23641ADD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54DF3A9-ED2F-4681-A96F-8771968CB4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{91175FD6-C2E5-4392-86CC-4BE66B063BA1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{91175FD6-C2E5-4392-86CC-4BE66B063BA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2740,7 +2740,7 @@
   <dimension ref="B3:J94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
